--- a/src/test/resources/data/TestData.xlsx
+++ b/src/test/resources/data/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B8430C5F-6BC8-44D1-9B38-019A08740AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5B538112-4BC0-43B4-92A3-3F7325E349A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="AccountInvaildLoginTest" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:X33"/>
+  <oleSize ref="A1:J9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +500,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -514,7 +514,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -528,7 +528,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0822DDB3-ACB9-47CA-B99A-A0D3D0B6D2D1}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/data/TestData.xlsx
+++ b/src/test/resources/data/TestData.xlsx
@@ -1,9 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5B538112-4BC0-43B4-92A3-3F7325E349A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\Aps_testng\src\test\resources\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C4EE36-5896-4552-90FA-CDEF22B6BB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +19,6 @@
     <sheet name="AccountInvaildLoginTest" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
   <si>
     <t>Description</t>
   </si>
@@ -59,12 +63,6 @@
     <t>message</t>
   </si>
   <si>
-    <t>TC002_AccountLogin</t>
-  </si>
-  <si>
-    <t>TC003_AccountLogin</t>
-  </si>
-  <si>
     <t>AccountLoginTest</t>
   </si>
   <si>
@@ -105,6 +103,111 @@
   </si>
   <si>
     <t>Download Client CSV</t>
+  </si>
+  <si>
+    <t>plain address</t>
+  </si>
+  <si>
+    <t>#@%^%#$@#$@#.com</t>
+  </si>
+  <si>
+    <t>@domain.com</t>
+  </si>
+  <si>
+    <t>Joe Smith &lt;email@domain.com&gt;</t>
+  </si>
+  <si>
+    <t>email.domain.com</t>
+  </si>
+  <si>
+    <t>email@domain@domain.com</t>
+  </si>
+  <si>
+    <t>.email@domain.com</t>
+  </si>
+  <si>
+    <t>email.@domain.com</t>
+  </si>
+  <si>
+    <t>email..email@domain.com</t>
+  </si>
+  <si>
+    <t>あいうえお@domain.com</t>
+  </si>
+  <si>
+    <t>email@domain.com (Joe Smith)</t>
+  </si>
+  <si>
+    <t>email@domain</t>
+  </si>
+  <si>
+    <t>email@-domain.com</t>
+  </si>
+  <si>
+    <t>email@domain.web</t>
+  </si>
+  <si>
+    <t>email@111.222.333.44444</t>
+  </si>
+  <si>
+    <t>email@domain..com</t>
+  </si>
+  <si>
+    <t>AccountLogin_TC001</t>
+  </si>
+  <si>
+    <t>AccountLogin_TC002</t>
+  </si>
+  <si>
+    <t>AccountLogin_TC003</t>
+  </si>
+  <si>
+    <t>AccountLogin_TC004</t>
+  </si>
+  <si>
+    <t>AccountLogin_TC005</t>
+  </si>
+  <si>
+    <t>AccountLogin_TC006</t>
+  </si>
+  <si>
+    <t>AccountLogin_TC007</t>
+  </si>
+  <si>
+    <t>AccountLogin_TC008</t>
+  </si>
+  <si>
+    <t>AccountLogin_TC009</t>
+  </si>
+  <si>
+    <t>AccountLogin_TC010</t>
+  </si>
+  <si>
+    <t>AccountLogin_TC011</t>
+  </si>
+  <si>
+    <t>AccountLogin_TC012</t>
+  </si>
+  <si>
+    <t>AccountLogin_TC013</t>
+  </si>
+  <si>
+    <t>AccountLogin_TC014</t>
+  </si>
+  <si>
+    <t>AccountLogin_TC015</t>
+  </si>
+  <si>
+    <t>AccountLogin_TC016</t>
+  </si>
+  <si>
+    <t>AccountLogin_TC017</t>
+  </si>
+  <si>
+    <t>AccountLogin_TC018</t>
+  </si>
+  <si>
+    <t>AccountLogin_TC019</t>
   </si>
 </sst>
 </file>
@@ -169,13 +272,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -460,7 +564,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,13 +598,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -508,10 +612,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -522,13 +626,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -566,13 +670,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -588,7 +692,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,13 +715,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -631,16 +735,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAE8DB1-0B2F-47E2-B3A5-A105A60EA0EA}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -659,45 +763,269 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
+      <c r="A2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
+      <c r="A4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
